--- a/data/pca/factorExposure/factorExposure_2015-03-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02354946891707804</v>
+        <v>0.01251859712878701</v>
       </c>
       <c r="C2">
-        <v>0.02431382403761859</v>
+        <v>0.05171116313807714</v>
       </c>
       <c r="D2">
-        <v>-0.1531291753755973</v>
+        <v>-0.1205230886715118</v>
       </c>
       <c r="E2">
-        <v>-0.05356073809830939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.04647828612582802</v>
+      </c>
+      <c r="F2">
+        <v>0.04127343663855785</v>
+      </c>
+      <c r="G2">
+        <v>0.1395033252114635</v>
+      </c>
+      <c r="H2">
+        <v>0.07913413404265779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04814337292132875</v>
+        <v>0.02116317751622721</v>
       </c>
       <c r="C4">
-        <v>0.07245709259540442</v>
+        <v>0.109170221811896</v>
       </c>
       <c r="D4">
-        <v>-0.1145102769648281</v>
+        <v>-0.1173630965317825</v>
       </c>
       <c r="E4">
-        <v>-0.1112115536791318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.04571300926193234</v>
+      </c>
+      <c r="F4">
+        <v>0.1001434397666328</v>
+      </c>
+      <c r="G4">
+        <v>0.03825679381139187</v>
+      </c>
+      <c r="H4">
+        <v>-0.06615976841490949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02904946951086991</v>
+        <v>0.03330613915055772</v>
       </c>
       <c r="C6">
-        <v>0.01484115786001874</v>
+        <v>0.03745744026632366</v>
       </c>
       <c r="D6">
-        <v>-0.1184342600090742</v>
+        <v>-0.1002683031055188</v>
       </c>
       <c r="E6">
-        <v>-0.06520830598665801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08513719577872526</v>
+      </c>
+      <c r="F6">
+        <v>0.04736229726238335</v>
+      </c>
+      <c r="G6">
+        <v>6.1053081180204e-05</v>
+      </c>
+      <c r="H6">
+        <v>0.01213643741754841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001642157950110513</v>
+        <v>0.006907532383710834</v>
       </c>
       <c r="C7">
-        <v>0.0248785456014609</v>
+        <v>0.04018227423245469</v>
       </c>
       <c r="D7">
-        <v>-0.1125291150419659</v>
+        <v>-0.090569288852529</v>
       </c>
       <c r="E7">
-        <v>-0.03050797331902185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07601603626773065</v>
+      </c>
+      <c r="F7">
+        <v>0.01267074815982347</v>
+      </c>
+      <c r="G7">
+        <v>-0.0003533627154714274</v>
+      </c>
+      <c r="H7">
+        <v>-0.02376010210649334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003676303963492499</v>
+        <v>-0.004109684712829057</v>
       </c>
       <c r="C8">
-        <v>0.02726869486523848</v>
+        <v>0.03868426679058393</v>
       </c>
       <c r="D8">
-        <v>-0.08248585045064319</v>
+        <v>-0.06185883894679785</v>
       </c>
       <c r="E8">
-        <v>-0.04390780501252079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0490931681243572</v>
+      </c>
+      <c r="F8">
+        <v>0.04902201304764695</v>
+      </c>
+      <c r="G8">
+        <v>0.07252809297876076</v>
+      </c>
+      <c r="H8">
+        <v>-0.02643715679138011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03819684564151134</v>
+        <v>0.0160261198837475</v>
       </c>
       <c r="C9">
-        <v>0.0639400433834279</v>
+        <v>0.09051120379566525</v>
       </c>
       <c r="D9">
-        <v>-0.1184526935794088</v>
+        <v>-0.1035625033044496</v>
       </c>
       <c r="E9">
-        <v>-0.09029895696076007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.03935647285563569</v>
+      </c>
+      <c r="F9">
+        <v>0.06724326293670015</v>
+      </c>
+      <c r="G9">
+        <v>0.01733081499329477</v>
+      </c>
+      <c r="H9">
+        <v>-0.02435575078218876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1834415723447695</v>
+        <v>0.242593786004146</v>
       </c>
       <c r="C10">
-        <v>-0.170403613636056</v>
+        <v>-0.09690733218980323</v>
       </c>
       <c r="D10">
-        <v>0.03583721664122175</v>
+        <v>0.01499594258066946</v>
       </c>
       <c r="E10">
-        <v>-0.04056140675036535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02567214861715328</v>
+      </c>
+      <c r="F10">
+        <v>0.0379982143024045</v>
+      </c>
+      <c r="G10">
+        <v>-0.01326611266357855</v>
+      </c>
+      <c r="H10">
+        <v>0.005868013667225187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01799905327221122</v>
+        <v>0.01190222255340264</v>
       </c>
       <c r="C11">
-        <v>0.04136427163638039</v>
+        <v>0.05964914203081646</v>
       </c>
       <c r="D11">
-        <v>-0.04843437776607459</v>
+        <v>-0.039604275327725</v>
       </c>
       <c r="E11">
-        <v>0.01009603130525986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03768279020564751</v>
+      </c>
+      <c r="F11">
+        <v>-0.01228395741254054</v>
+      </c>
+      <c r="G11">
+        <v>-0.002358568107025551</v>
+      </c>
+      <c r="H11">
+        <v>-0.0220138812315782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01708161473847274</v>
+        <v>0.01253227600838042</v>
       </c>
       <c r="C12">
-        <v>0.04230005315581409</v>
+        <v>0.05216606720689177</v>
       </c>
       <c r="D12">
-        <v>-0.0649799429302329</v>
+        <v>-0.04745395110300731</v>
       </c>
       <c r="E12">
-        <v>-0.003469962230879936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03407977100006451</v>
+      </c>
+      <c r="F12">
+        <v>-0.01485923787840878</v>
+      </c>
+      <c r="G12">
+        <v>-0.0154356284741626</v>
+      </c>
+      <c r="H12">
+        <v>0.01206081313437155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009212618040192251</v>
+        <v>0.003453940599244963</v>
       </c>
       <c r="C13">
-        <v>0.02728149011497224</v>
+        <v>0.05872585659859968</v>
       </c>
       <c r="D13">
-        <v>-0.1381289953559396</v>
+        <v>-0.1570324227342924</v>
       </c>
       <c r="E13">
-        <v>-0.06777507569303146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0712103727260648</v>
+      </c>
+      <c r="F13">
+        <v>0.04278194599803209</v>
+      </c>
+      <c r="G13">
+        <v>0.05940426282923497</v>
+      </c>
+      <c r="H13">
+        <v>0.07828274432692156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004071151345972284</v>
+        <v>0.004463372244419831</v>
       </c>
       <c r="C14">
-        <v>0.01869138772766632</v>
+        <v>0.03517492567968296</v>
       </c>
       <c r="D14">
-        <v>-0.08441152435762914</v>
+        <v>-0.08793963227382748</v>
       </c>
       <c r="E14">
-        <v>-0.02675648542926548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.08219640952928227</v>
+      </c>
+      <c r="F14">
+        <v>0.02992047914423513</v>
+      </c>
+      <c r="G14">
+        <v>0.03149674744508128</v>
+      </c>
+      <c r="H14">
+        <v>0.0313005167140603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002799158442275251</v>
+        <v>-0.003583608467539301</v>
       </c>
       <c r="C15">
-        <v>0.01303847789252111</v>
+        <v>0.03027120226501017</v>
       </c>
       <c r="D15">
-        <v>-0.0465571823461334</v>
+        <v>-0.05804357451625927</v>
       </c>
       <c r="E15">
-        <v>-0.00739239376169919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.03459571548678034</v>
+      </c>
+      <c r="F15">
+        <v>0.009143012845463885</v>
+      </c>
+      <c r="G15">
+        <v>0.03104011887526738</v>
+      </c>
+      <c r="H15">
+        <v>-0.01054600470696491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01726812362478492</v>
+        <v>0.01107592668259295</v>
       </c>
       <c r="C16">
-        <v>0.03797992074367414</v>
+        <v>0.05208465661312217</v>
       </c>
       <c r="D16">
-        <v>-0.0549011769760689</v>
+        <v>-0.04284566799558139</v>
       </c>
       <c r="E16">
-        <v>-0.001495764063496417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03935509454192065</v>
+      </c>
+      <c r="F16">
+        <v>-0.006877031015022441</v>
+      </c>
+      <c r="G16">
+        <v>-0.01252750494757195</v>
+      </c>
+      <c r="H16">
+        <v>-0.01028149574343314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0004948210915285353</v>
+        <v>-0.00204906099674159</v>
       </c>
       <c r="C19">
-        <v>0.02069810996657318</v>
+        <v>0.0165091349529502</v>
       </c>
       <c r="D19">
-        <v>-0.0791495667397028</v>
+        <v>-0.04643977988508976</v>
       </c>
       <c r="E19">
-        <v>-0.04346775759104997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0015825394475739</v>
+      </c>
+      <c r="F19">
+        <v>0.0137879471619125</v>
+      </c>
+      <c r="G19">
+        <v>0.02499390908823656</v>
+      </c>
+      <c r="H19">
+        <v>0.02037967178501109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003992339402828795</v>
+        <v>0.005468830959676621</v>
       </c>
       <c r="C20">
-        <v>0.02572238411179622</v>
+        <v>0.04328464545512965</v>
       </c>
       <c r="D20">
-        <v>-0.07691843403791609</v>
+        <v>-0.08118587499471246</v>
       </c>
       <c r="E20">
-        <v>-0.04894214957543406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04632433622098918</v>
+      </c>
+      <c r="F20">
+        <v>0.02826001745631862</v>
+      </c>
+      <c r="G20">
+        <v>-0.00231651478422706</v>
+      </c>
+      <c r="H20">
+        <v>-0.02983182816200783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01171347232740283</v>
+        <v>0.005478199777266358</v>
       </c>
       <c r="C21">
-        <v>0.03208557135826683</v>
+        <v>0.05064885498858998</v>
       </c>
       <c r="D21">
-        <v>-0.1352076695357813</v>
+        <v>-0.1142179412593435</v>
       </c>
       <c r="E21">
-        <v>-0.1032629274079786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06155060580743024</v>
+      </c>
+      <c r="F21">
+        <v>0.0921816475110018</v>
+      </c>
+      <c r="G21">
+        <v>0.07734819219420648</v>
+      </c>
+      <c r="H21">
+        <v>0.09879870674840828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004718107483942066</v>
+        <v>-0.006055287298747413</v>
       </c>
       <c r="C22">
-        <v>0.05274127951980687</v>
+        <v>0.08036409976090705</v>
       </c>
       <c r="D22">
-        <v>-0.2173643391280479</v>
+        <v>-0.2164839035536432</v>
       </c>
       <c r="E22">
-        <v>-0.06970447349213185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04263957787464461</v>
+      </c>
+      <c r="F22">
+        <v>0.04001419068846138</v>
+      </c>
+      <c r="G22">
+        <v>0.2414047066095137</v>
+      </c>
+      <c r="H22">
+        <v>-0.09330032447461713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005088683672013711</v>
+        <v>-0.002987971589947572</v>
       </c>
       <c r="C23">
-        <v>0.05298876810475101</v>
+        <v>0.08203524984517566</v>
       </c>
       <c r="D23">
-        <v>-0.216071086100352</v>
+        <v>-0.220010369275288</v>
       </c>
       <c r="E23">
-        <v>-0.0699573174979557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03934807473126619</v>
+      </c>
+      <c r="F23">
+        <v>0.04296313061904017</v>
+      </c>
+      <c r="G23">
+        <v>0.2351947735638292</v>
+      </c>
+      <c r="H23">
+        <v>-0.08800848621918887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02375544472351742</v>
+        <v>0.01235651629919378</v>
       </c>
       <c r="C24">
-        <v>0.05993922031900888</v>
+        <v>0.07002469140641859</v>
       </c>
       <c r="D24">
-        <v>-0.06962840664548074</v>
+        <v>-0.04470531375694365</v>
       </c>
       <c r="E24">
-        <v>-0.004752467178955713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04649207992126053</v>
+      </c>
+      <c r="F24">
+        <v>-0.005362336518597795</v>
+      </c>
+      <c r="G24">
+        <v>0.005781619327109678</v>
+      </c>
+      <c r="H24">
+        <v>-0.01023682120232407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02434982237558337</v>
+        <v>0.01657767908821639</v>
       </c>
       <c r="C25">
-        <v>0.05076329909633037</v>
+        <v>0.0645646970807483</v>
       </c>
       <c r="D25">
-        <v>-0.0623577745386486</v>
+        <v>-0.0489115886860987</v>
       </c>
       <c r="E25">
-        <v>-0.01107702479276762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0316784111767916</v>
+      </c>
+      <c r="F25">
+        <v>-0.005251301928134022</v>
+      </c>
+      <c r="G25">
+        <v>-0.01029820257261331</v>
+      </c>
+      <c r="H25">
+        <v>-0.009125082864825962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009167796389602573</v>
+        <v>0.01783984738078016</v>
       </c>
       <c r="C26">
-        <v>0.01722639200993934</v>
+        <v>0.03073443941684567</v>
       </c>
       <c r="D26">
-        <v>-0.07167838175980633</v>
+        <v>-0.0549348979351451</v>
       </c>
       <c r="E26">
-        <v>-0.03404341297647214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0582160225078104</v>
+      </c>
+      <c r="F26">
+        <v>0.04580094595004062</v>
+      </c>
+      <c r="G26">
+        <v>0.0352182101540787</v>
+      </c>
+      <c r="H26">
+        <v>0.007480719286829808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2629666433709356</v>
+        <v>0.3112028682565979</v>
       </c>
       <c r="C28">
-        <v>-0.1896009951978311</v>
+        <v>-0.09669770030328645</v>
       </c>
       <c r="D28">
-        <v>0.01081023308088183</v>
+        <v>0.02099714433180262</v>
       </c>
       <c r="E28">
-        <v>-0.03838259021710365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05631601118323847</v>
+      </c>
+      <c r="F28">
+        <v>0.0461233395163702</v>
+      </c>
+      <c r="G28">
+        <v>0.06323840172794777</v>
+      </c>
+      <c r="H28">
+        <v>-0.005685908054516003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001383856306687789</v>
+        <v>0.003062876667460361</v>
       </c>
       <c r="C29">
-        <v>0.02256613838647119</v>
+        <v>0.04129257838076278</v>
       </c>
       <c r="D29">
-        <v>-0.0841314998769816</v>
+        <v>-0.09289952143549958</v>
       </c>
       <c r="E29">
-        <v>-0.03587223546327421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09476020939898749</v>
+      </c>
+      <c r="F29">
+        <v>0.03340264841659587</v>
+      </c>
+      <c r="G29">
+        <v>0.02511075317386593</v>
+      </c>
+      <c r="H29">
+        <v>0.03897633040054644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03093097107077076</v>
+        <v>0.01848398522533611</v>
       </c>
       <c r="C30">
-        <v>0.06878358202052033</v>
+        <v>0.09781060866463705</v>
       </c>
       <c r="D30">
-        <v>-0.1564346517549045</v>
+        <v>-0.1206486569676529</v>
       </c>
       <c r="E30">
-        <v>-0.05190507144684321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08427393046632647</v>
+      </c>
+      <c r="F30">
+        <v>0.02213185575114405</v>
+      </c>
+      <c r="G30">
+        <v>0.03278629262300169</v>
+      </c>
+      <c r="H30">
+        <v>-0.04371672450467624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03762872709222118</v>
+        <v>0.01178436685581913</v>
       </c>
       <c r="C31">
-        <v>0.08324636409253527</v>
+        <v>0.09468639637045263</v>
       </c>
       <c r="D31">
-        <v>-0.05603057402512582</v>
+        <v>-0.03373150127046913</v>
       </c>
       <c r="E31">
-        <v>-0.02211258085537996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.025266398821535</v>
+      </c>
+      <c r="F31">
+        <v>0.01811520034494319</v>
+      </c>
+      <c r="G31">
+        <v>0.02081698502562644</v>
+      </c>
+      <c r="H31">
+        <v>-0.004630527194503221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0179685987152874</v>
+        <v>0.01261780375716531</v>
       </c>
       <c r="C32">
-        <v>0.04074443456303932</v>
+        <v>0.05191147561600631</v>
       </c>
       <c r="D32">
-        <v>-0.0881676475372055</v>
+        <v>-0.07726505493232973</v>
       </c>
       <c r="E32">
-        <v>-0.0663607606438206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01189846855668571</v>
+      </c>
+      <c r="F32">
+        <v>0.04879187950686971</v>
+      </c>
+      <c r="G32">
+        <v>0.03664367766997433</v>
+      </c>
+      <c r="H32">
+        <v>0.02341096703935102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008526455029169306</v>
+        <v>0.008949936588761654</v>
       </c>
       <c r="C33">
-        <v>0.04073192246044072</v>
+        <v>0.06288064406696176</v>
       </c>
       <c r="D33">
-        <v>-0.1171191042033629</v>
+        <v>-0.1101692880374069</v>
       </c>
       <c r="E33">
-        <v>-0.05691681262833947</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05661341774398471</v>
+      </c>
+      <c r="F33">
+        <v>0.0306034130335256</v>
+      </c>
+      <c r="G33">
+        <v>0.01756728980293436</v>
+      </c>
+      <c r="H33">
+        <v>3.622622482694051e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02200660371925914</v>
+        <v>0.01154786903502187</v>
       </c>
       <c r="C34">
-        <v>0.06018970889605689</v>
+        <v>0.06449353732171703</v>
       </c>
       <c r="D34">
-        <v>-0.06027070274201767</v>
+        <v>-0.02581344826980823</v>
       </c>
       <c r="E34">
-        <v>0.03941524745312797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03902716494480378</v>
+      </c>
+      <c r="F34">
+        <v>-0.03804282437952125</v>
+      </c>
+      <c r="G34">
+        <v>0.004188680575992694</v>
+      </c>
+      <c r="H34">
+        <v>0.0004188950673934088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.004118874444522123</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01395870135432905</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03340030098239336</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01792182527664939</v>
+      </c>
+      <c r="F35">
+        <v>0.0169165415705608</v>
+      </c>
+      <c r="G35">
+        <v>0.001912765778239162</v>
+      </c>
+      <c r="H35">
+        <v>0.0048161046381744</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008320667577389964</v>
+        <v>0.01136613100716885</v>
       </c>
       <c r="C36">
-        <v>0.007906908279477988</v>
+        <v>0.02343174129617765</v>
       </c>
       <c r="D36">
-        <v>-0.06875029423551673</v>
+        <v>-0.06476161947165686</v>
       </c>
       <c r="E36">
-        <v>-0.05616644469210529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04584722580118727</v>
+      </c>
+      <c r="F36">
+        <v>0.05113490846342674</v>
+      </c>
+      <c r="G36">
+        <v>0.02390918581284268</v>
+      </c>
+      <c r="H36">
+        <v>0.002497234976465159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00688191087108336</v>
+        <v>0.01185427813509693</v>
       </c>
       <c r="C38">
-        <v>0.008167693575162447</v>
+        <v>0.02779985571588026</v>
       </c>
       <c r="D38">
-        <v>-0.09091220182204264</v>
+        <v>-0.08572759843899526</v>
       </c>
       <c r="E38">
-        <v>-0.02350127846516472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03219857983503235</v>
+      </c>
+      <c r="F38">
+        <v>0.005320788220392918</v>
+      </c>
+      <c r="G38">
+        <v>0.04347576417226982</v>
+      </c>
+      <c r="H38">
+        <v>-0.02965398306595905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01746652561042439</v>
+        <v>0.008052921478466122</v>
       </c>
       <c r="C39">
-        <v>0.06139104604651027</v>
+        <v>0.08478140155450098</v>
       </c>
       <c r="D39">
-        <v>-0.1172741240588256</v>
+        <v>-0.08761221347255435</v>
       </c>
       <c r="E39">
-        <v>-0.0153382176465796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08074409339955337</v>
+      </c>
+      <c r="F39">
+        <v>-0.005445629658886119</v>
+      </c>
+      <c r="G39">
+        <v>0.004861453664803002</v>
+      </c>
+      <c r="H39">
+        <v>-0.008765969195381538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01869339184274423</v>
+        <v>0.01337547455660369</v>
       </c>
       <c r="C40">
-        <v>0.02406243817678944</v>
+        <v>0.04381382296315815</v>
       </c>
       <c r="D40">
-        <v>-0.1264787803613996</v>
+        <v>-0.08949187569928976</v>
       </c>
       <c r="E40">
-        <v>-0.009362881269540931</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0718798736422704</v>
+      </c>
+      <c r="F40">
+        <v>-0.02526088932331995</v>
+      </c>
+      <c r="G40">
+        <v>0.08396674328228093</v>
+      </c>
+      <c r="H40">
+        <v>0.03377430047194426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01171215863106393</v>
+        <v>0.01939192689939053</v>
       </c>
       <c r="C41">
-        <v>0.00374503380691914</v>
+        <v>0.0230088099858914</v>
       </c>
       <c r="D41">
-        <v>-0.04016874842364678</v>
+        <v>-0.04450296105681992</v>
       </c>
       <c r="E41">
-        <v>-0.03293457303310639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01106294861341698</v>
+      </c>
+      <c r="F41">
+        <v>0.02318367085497822</v>
+      </c>
+      <c r="G41">
+        <v>0.01319806061755076</v>
+      </c>
+      <c r="H41">
+        <v>-0.003244555214455224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.000510579554469722</v>
+        <v>0.0107313667209831</v>
       </c>
       <c r="C43">
-        <v>0.002664325881873421</v>
+        <v>0.01746345842126737</v>
       </c>
       <c r="D43">
-        <v>-0.05269289857821488</v>
+        <v>-0.05131159659936769</v>
       </c>
       <c r="E43">
-        <v>-0.02998261805031009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02499244665329767</v>
+      </c>
+      <c r="F43">
+        <v>0.02434905900387181</v>
+      </c>
+      <c r="G43">
+        <v>0.01501857751720589</v>
+      </c>
+      <c r="H43">
+        <v>-0.01741289147655363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02048701147178071</v>
+        <v>0.0112465821164161</v>
       </c>
       <c r="C44">
-        <v>0.02486870252040017</v>
+        <v>0.04932454018757997</v>
       </c>
       <c r="D44">
-        <v>-0.1001839501460926</v>
+        <v>-0.09913775446547041</v>
       </c>
       <c r="E44">
-        <v>-0.07139633682233347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06439060180334913</v>
+      </c>
+      <c r="F44">
+        <v>0.04096669876213817</v>
+      </c>
+      <c r="G44">
+        <v>0.0488393859462182</v>
+      </c>
+      <c r="H44">
+        <v>-0.01930411234683633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005058796355880365</v>
+        <v>-0.001080106518997441</v>
       </c>
       <c r="C46">
-        <v>0.03160725433692802</v>
+        <v>0.04360719214599095</v>
       </c>
       <c r="D46">
-        <v>-0.08921114793876402</v>
+        <v>-0.06941056431813489</v>
       </c>
       <c r="E46">
-        <v>-0.03567227358502691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0708583453211918</v>
+      </c>
+      <c r="F46">
+        <v>0.03596808116701586</v>
+      </c>
+      <c r="G46">
+        <v>0.03761243553365799</v>
+      </c>
+      <c r="H46">
+        <v>0.001720105385267678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07774674854908822</v>
+        <v>0.03273391923432743</v>
       </c>
       <c r="C47">
-        <v>0.1099298426070178</v>
+        <v>0.1272461476449115</v>
       </c>
       <c r="D47">
-        <v>-0.06603807850220099</v>
+        <v>-0.0231500409760591</v>
       </c>
       <c r="E47">
-        <v>-0.02722688454923597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.001587254861681811</v>
+      </c>
+      <c r="F47">
+        <v>-0.003579550702876415</v>
+      </c>
+      <c r="G47">
+        <v>-0.01067950712172855</v>
+      </c>
+      <c r="H47">
+        <v>-0.01130519054971271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01037686046634019</v>
+        <v>0.01440169502303559</v>
       </c>
       <c r="C48">
-        <v>0.01853261396654788</v>
+        <v>0.03456725263579947</v>
       </c>
       <c r="D48">
-        <v>-0.0771184662644336</v>
+        <v>-0.06928284281945486</v>
       </c>
       <c r="E48">
-        <v>-0.06097800526881216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.03974537458110462</v>
+      </c>
+      <c r="F48">
+        <v>0.05755060162902002</v>
+      </c>
+      <c r="G48">
+        <v>0.03592551441680739</v>
+      </c>
+      <c r="H48">
+        <v>-0.006401273207333086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0002210115241975009</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0001700382256605184</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>8.736591413154965e-05</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0001289396756294806</v>
+      </c>
+      <c r="F49">
+        <v>-4.571277816384277e-05</v>
+      </c>
+      <c r="G49">
+        <v>-0.0002360321852282572</v>
+      </c>
+      <c r="H49">
+        <v>-0.0001331820696745048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03414794168661116</v>
+        <v>0.01472450154749882</v>
       </c>
       <c r="C50">
-        <v>0.05768988604384283</v>
+        <v>0.07577952042712578</v>
       </c>
       <c r="D50">
-        <v>-0.06222549049999655</v>
+        <v>-0.04367143602219817</v>
       </c>
       <c r="E50">
-        <v>-0.01604745593064834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02481827792111082</v>
+      </c>
+      <c r="F50">
+        <v>0.01068211329764248</v>
+      </c>
+      <c r="G50">
+        <v>0.02680140162674735</v>
+      </c>
+      <c r="H50">
+        <v>-0.0173111553006868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004518912202919024</v>
+        <v>-0.004198279298703212</v>
       </c>
       <c r="C51">
-        <v>0.007747298163154835</v>
+        <v>0.01799583826878118</v>
       </c>
       <c r="D51">
-        <v>-0.05891617561772516</v>
+        <v>-0.04101103711003928</v>
       </c>
       <c r="E51">
-        <v>-0.02007653034123283</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04748189811029552</v>
+      </c>
+      <c r="F51">
+        <v>0.03533427650563594</v>
+      </c>
+      <c r="G51">
+        <v>0.05266446996715331</v>
+      </c>
+      <c r="H51">
+        <v>0.01050515038815666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.110314941699509</v>
+        <v>0.06119881242439142</v>
       </c>
       <c r="C53">
-        <v>0.1266216766638494</v>
+        <v>0.1597726543449198</v>
       </c>
       <c r="D53">
-        <v>0.006308878966513362</v>
+        <v>0.02089482030197856</v>
       </c>
       <c r="E53">
-        <v>-0.04252071234326323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03208631078129177</v>
+      </c>
+      <c r="F53">
+        <v>0.04228464660744102</v>
+      </c>
+      <c r="G53">
+        <v>0.004272587650859808</v>
+      </c>
+      <c r="H53">
+        <v>-0.01107372175764216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01181249668043029</v>
+        <v>0.01232537406176439</v>
       </c>
       <c r="C54">
-        <v>0.02334703750121358</v>
+        <v>0.04134232917857796</v>
       </c>
       <c r="D54">
-        <v>-0.09693056128394301</v>
+        <v>-0.07650547073966037</v>
       </c>
       <c r="E54">
-        <v>-0.02148434114896276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.03898852117226706</v>
+      </c>
+      <c r="F54">
+        <v>0.007226852828094035</v>
+      </c>
+      <c r="G54">
+        <v>0.04036812694918098</v>
+      </c>
+      <c r="H54">
+        <v>-0.02398042286802175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0938705956531955</v>
+        <v>0.04388199293704121</v>
       </c>
       <c r="C55">
-        <v>0.1083827120509893</v>
+        <v>0.1288382324500704</v>
       </c>
       <c r="D55">
-        <v>0.001236638240900999</v>
+        <v>0.04440997690501407</v>
       </c>
       <c r="E55">
-        <v>0.005949461797642282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004638645635662742</v>
+      </c>
+      <c r="F55">
+        <v>0.002554394146588957</v>
+      </c>
+      <c r="G55">
+        <v>0.01031734913200194</v>
+      </c>
+      <c r="H55">
+        <v>0.008171303835226164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1330566409151013</v>
+        <v>0.06153301179144492</v>
       </c>
       <c r="C56">
-        <v>0.1489477102118477</v>
+        <v>0.1889557360059783</v>
       </c>
       <c r="D56">
-        <v>-0.01675257478984401</v>
+        <v>0.03781660745869341</v>
       </c>
       <c r="E56">
-        <v>0.002840251391423106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03451432901910403</v>
+      </c>
+      <c r="F56">
+        <v>0.009126699307528147</v>
+      </c>
+      <c r="G56">
+        <v>0.05997836726461841</v>
+      </c>
+      <c r="H56">
+        <v>0.002982728515732139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.002318609253836134</v>
+        <v>0.005848422009631746</v>
       </c>
       <c r="C58">
-        <v>0.01631227254501301</v>
+        <v>0.06178059064991759</v>
       </c>
       <c r="D58">
-        <v>-0.2247959425336473</v>
+        <v>-0.2686298222925118</v>
       </c>
       <c r="E58">
-        <v>-0.1504443473544541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.06445646065069165</v>
+      </c>
+      <c r="F58">
+        <v>0.139432857344728</v>
+      </c>
+      <c r="G58">
+        <v>0.1545603009958471</v>
+      </c>
+      <c r="H58">
+        <v>-0.07705325553349444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1865493175075247</v>
+        <v>0.2566871128779248</v>
       </c>
       <c r="C59">
-        <v>-0.1378560794579685</v>
+        <v>-0.06222314391774284</v>
       </c>
       <c r="D59">
-        <v>-0.0454713239645932</v>
+        <v>-0.04476859473350431</v>
       </c>
       <c r="E59">
-        <v>-0.03485852137598468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.018171238511408</v>
+      </c>
+      <c r="F59">
+        <v>0.01877970731081051</v>
+      </c>
+      <c r="G59">
+        <v>0.01702213435503516</v>
+      </c>
+      <c r="H59">
+        <v>0.03771613124591443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1868140808291442</v>
+        <v>0.1579864249643871</v>
       </c>
       <c r="C60">
-        <v>0.0911462877490961</v>
+        <v>0.1631175522426329</v>
       </c>
       <c r="D60">
-        <v>-0.124334738253685</v>
+        <v>-0.04393681535715038</v>
       </c>
       <c r="E60">
-        <v>0.08880265537514297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1230833416102459</v>
+      </c>
+      <c r="F60">
+        <v>-0.2002429001412209</v>
+      </c>
+      <c r="G60">
+        <v>-0.273917708298503</v>
+      </c>
+      <c r="H60">
+        <v>0.0923835395056461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02776761794254567</v>
+        <v>0.01590931396957164</v>
       </c>
       <c r="C61">
-        <v>0.05642015589661052</v>
+        <v>0.07994143784488786</v>
       </c>
       <c r="D61">
-        <v>-0.09115652619093229</v>
+        <v>-0.06685266506117053</v>
       </c>
       <c r="E61">
-        <v>-0.003535393075516998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06062173444510542</v>
+      </c>
+      <c r="F61">
+        <v>-0.0144456763211059</v>
+      </c>
+      <c r="G61">
+        <v>-0.00367683682823394</v>
+      </c>
+      <c r="H61">
+        <v>0.001969570478278082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01210471352517047</v>
+        <v>0.01513673068218027</v>
       </c>
       <c r="C63">
-        <v>0.02548898404409774</v>
+        <v>0.04346469463202848</v>
       </c>
       <c r="D63">
-        <v>-0.08376385475903129</v>
+        <v>-0.05349202541924106</v>
       </c>
       <c r="E63">
-        <v>-0.02998112822329835</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07469257206811154</v>
+      </c>
+      <c r="F63">
+        <v>0.02497810786402273</v>
+      </c>
+      <c r="G63">
+        <v>0.01661879846350098</v>
+      </c>
+      <c r="H63">
+        <v>-0.008483865331760156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05430748440559571</v>
+        <v>0.01839112516813882</v>
       </c>
       <c r="C64">
-        <v>0.08631918899888699</v>
+        <v>0.1033087717468639</v>
       </c>
       <c r="D64">
-        <v>-0.02646053416882962</v>
+        <v>-0.01414812767072492</v>
       </c>
       <c r="E64">
-        <v>-0.02478891977341012</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03283624838426572</v>
+      </c>
+      <c r="F64">
+        <v>0.02229137111624486</v>
+      </c>
+      <c r="G64">
+        <v>-0.01562943219592756</v>
+      </c>
+      <c r="H64">
+        <v>-0.03303200977022705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02689679088491123</v>
+        <v>0.02605358292682596</v>
       </c>
       <c r="C65">
-        <v>0.01746562849597996</v>
+        <v>0.04606401687625553</v>
       </c>
       <c r="D65">
-        <v>-0.1000657538369762</v>
+        <v>-0.09913140850219405</v>
       </c>
       <c r="E65">
-        <v>-0.02924960228522944</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06573753325458859</v>
+      </c>
+      <c r="F65">
+        <v>-0.002924234772530531</v>
+      </c>
+      <c r="G65">
+        <v>-0.03367539926218482</v>
+      </c>
+      <c r="H65">
+        <v>-0.03124938619797229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02469105772265044</v>
+        <v>0.008501091628942239</v>
       </c>
       <c r="C66">
-        <v>0.07114603833062567</v>
+        <v>0.1049954893623562</v>
       </c>
       <c r="D66">
-        <v>-0.1341714994589178</v>
+        <v>-0.1120574042919633</v>
       </c>
       <c r="E66">
-        <v>-0.01608368367850179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.07504693400053454</v>
+      </c>
+      <c r="F66">
+        <v>-0.005866921897659219</v>
+      </c>
+      <c r="G66">
+        <v>0.02151623681760654</v>
+      </c>
+      <c r="H66">
+        <v>-0.01334642738264355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02314766370831938</v>
+        <v>0.02193271493130471</v>
       </c>
       <c r="C67">
-        <v>0.0198649013113199</v>
+        <v>0.03732220560680095</v>
       </c>
       <c r="D67">
-        <v>-0.05426680700562792</v>
+        <v>-0.044296170959079</v>
       </c>
       <c r="E67">
-        <v>0.009455653055887216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03012802600478362</v>
+      </c>
+      <c r="F67">
+        <v>-0.02489977184628316</v>
+      </c>
+      <c r="G67">
+        <v>0.02080076851352443</v>
+      </c>
+      <c r="H67">
+        <v>-0.02105371515589504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2028283416803079</v>
+        <v>0.2774850432152215</v>
       </c>
       <c r="C68">
-        <v>-0.149689660909407</v>
+        <v>-0.07432201198147012</v>
       </c>
       <c r="D68">
-        <v>-0.01436580677053191</v>
+        <v>-0.02185212612818976</v>
       </c>
       <c r="E68">
-        <v>-0.0198392282045965</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00418963886331883</v>
+      </c>
+      <c r="F68">
+        <v>0.02636770708387981</v>
+      </c>
+      <c r="G68">
+        <v>0.05504629258918916</v>
+      </c>
+      <c r="H68">
+        <v>0.003790952005703277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05837809791678508</v>
+        <v>0.01765780498841451</v>
       </c>
       <c r="C69">
-        <v>0.1181465261960063</v>
+        <v>0.1168917170354943</v>
       </c>
       <c r="D69">
-        <v>-0.08072185751474797</v>
+        <v>-0.02073709166938246</v>
       </c>
       <c r="E69">
-        <v>-0.01836719193220539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01381226818951332</v>
+      </c>
+      <c r="F69">
+        <v>-0.01169079291061958</v>
+      </c>
+      <c r="G69">
+        <v>0.002681511007499712</v>
+      </c>
+      <c r="H69">
+        <v>0.003189314732376805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2185070244341567</v>
+        <v>0.2708485110806317</v>
       </c>
       <c r="C71">
-        <v>-0.1749841197453233</v>
+        <v>-0.0896572394678601</v>
       </c>
       <c r="D71">
-        <v>-0.01625286705085959</v>
+        <v>-0.009593081769794233</v>
       </c>
       <c r="E71">
-        <v>-0.009747294505031862</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007436323134195509</v>
+      </c>
+      <c r="F71">
+        <v>0.01597118500513209</v>
+      </c>
+      <c r="G71">
+        <v>0.04337530207199117</v>
+      </c>
+      <c r="H71">
+        <v>-0.01233539212523992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1017303454898549</v>
+        <v>0.06383531063596951</v>
       </c>
       <c r="C72">
-        <v>0.07267439684515668</v>
+        <v>0.1241493281136888</v>
       </c>
       <c r="D72">
-        <v>-0.1182159906927785</v>
+        <v>-0.05658155132085425</v>
       </c>
       <c r="E72">
-        <v>-0.005320364352457117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08383753321489371</v>
+      </c>
+      <c r="F72">
+        <v>-0.01783481807204406</v>
+      </c>
+      <c r="G72">
+        <v>-0.03048699469924434</v>
+      </c>
+      <c r="H72">
+        <v>-0.002791840258579887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1754566898540663</v>
+        <v>0.1592472659565576</v>
       </c>
       <c r="C73">
-        <v>0.06692805836079485</v>
+        <v>0.1599128045744429</v>
       </c>
       <c r="D73">
-        <v>-0.2019527763625126</v>
+        <v>-0.06848760941362148</v>
       </c>
       <c r="E73">
-        <v>0.1493512718614702</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3024350895853493</v>
+      </c>
+      <c r="F73">
+        <v>-0.2937496224627201</v>
+      </c>
+      <c r="G73">
+        <v>-0.4250568325850193</v>
+      </c>
+      <c r="H73">
+        <v>0.05550342604064613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1053167028184276</v>
+        <v>0.05475955758680038</v>
       </c>
       <c r="C74">
-        <v>0.1144399317943437</v>
+        <v>0.1408030346411081</v>
       </c>
       <c r="D74">
-        <v>0.04909115331007315</v>
+        <v>0.05131151049610654</v>
       </c>
       <c r="E74">
-        <v>-0.02053715969267928</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02650789334855719</v>
+      </c>
+      <c r="F74">
+        <v>0.02987860909284523</v>
+      </c>
+      <c r="G74">
+        <v>-0.01288727179182791</v>
+      </c>
+      <c r="H74">
+        <v>-0.0001384695607644758</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2223049469217274</v>
+        <v>0.1014298191130489</v>
       </c>
       <c r="C75">
-        <v>0.2030376408139355</v>
+        <v>0.2595052544550545</v>
       </c>
       <c r="D75">
-        <v>0.07370178363937516</v>
+        <v>0.1227098023991459</v>
       </c>
       <c r="E75">
-        <v>0.06790382623137051</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1180781398340833</v>
+      </c>
+      <c r="F75">
+        <v>-0.04217212093464236</v>
+      </c>
+      <c r="G75">
+        <v>0.1153620472267155</v>
+      </c>
+      <c r="H75">
+        <v>-0.06100984077344533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1351935781686436</v>
+        <v>0.06194600006607003</v>
       </c>
       <c r="C76">
-        <v>0.1366291432317508</v>
+        <v>0.1765329010152787</v>
       </c>
       <c r="D76">
-        <v>0.001054024045865637</v>
+        <v>0.05116615430820223</v>
       </c>
       <c r="E76">
-        <v>0.008963064417677224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03525901208482664</v>
+      </c>
+      <c r="F76">
+        <v>-0.001083282296841977</v>
+      </c>
+      <c r="G76">
+        <v>0.04468082484535787</v>
+      </c>
+      <c r="H76">
+        <v>-0.01277363028795215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01837288093728764</v>
+        <v>0.00177410531828347</v>
       </c>
       <c r="C77">
-        <v>0.07715041835567736</v>
+        <v>0.1162208549346193</v>
       </c>
       <c r="D77">
-        <v>-0.1944707461608905</v>
+        <v>-0.4753154779577839</v>
       </c>
       <c r="E77">
-        <v>-0.1500127728708746</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7732481929618474</v>
+      </c>
+      <c r="F77">
+        <v>-0.2061930756026243</v>
+      </c>
+      <c r="G77">
+        <v>-0.2186464316935631</v>
+      </c>
+      <c r="H77">
+        <v>-0.02178005133755787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03337129631753921</v>
+        <v>0.02332193715243996</v>
       </c>
       <c r="C78">
-        <v>0.07382049467695299</v>
+        <v>0.09528771846888413</v>
       </c>
       <c r="D78">
-        <v>-0.1533723983211649</v>
+        <v>-0.09029126170578636</v>
       </c>
       <c r="E78">
-        <v>-0.07651403735454612</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07567322503610038</v>
+      </c>
+      <c r="F78">
+        <v>0.05182541153144127</v>
+      </c>
+      <c r="G78">
+        <v>0.07982940038415128</v>
+      </c>
+      <c r="H78">
+        <v>0.05371200511874166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1088570597022068</v>
+        <v>0.04896238452698935</v>
       </c>
       <c r="C79">
-        <v>0.1988745738139939</v>
+        <v>0.207063662966252</v>
       </c>
       <c r="D79">
-        <v>0.4057667064987044</v>
+        <v>0.1194791075152173</v>
       </c>
       <c r="E79">
-        <v>-0.7909903219496376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.105412898930654</v>
+      </c>
+      <c r="F79">
+        <v>0.7813312986322737</v>
+      </c>
+      <c r="G79">
+        <v>-0.4543440179437518</v>
+      </c>
+      <c r="H79">
+        <v>-0.019855302408683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00375127337399778</v>
+        <v>0.007120633189122253</v>
       </c>
       <c r="C80">
-        <v>0.04441297350244554</v>
+        <v>0.04434449297779993</v>
       </c>
       <c r="D80">
-        <v>-0.05126258840511861</v>
+        <v>-0.03309135587428182</v>
       </c>
       <c r="E80">
-        <v>-0.005501664437526485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06090393437672238</v>
+      </c>
+      <c r="F80">
+        <v>0.002872620871602077</v>
+      </c>
+      <c r="G80">
+        <v>0.00997833904085018</v>
+      </c>
+      <c r="H80">
+        <v>0.09030562589525332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1130964100577088</v>
+        <v>0.03935101029080078</v>
       </c>
       <c r="C81">
-        <v>0.1359093887623426</v>
+        <v>0.1608922052641381</v>
       </c>
       <c r="D81">
-        <v>0.07287649478792248</v>
+        <v>0.07011901855226318</v>
       </c>
       <c r="E81">
-        <v>-0.01612737641870359</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05963082636120404</v>
+      </c>
+      <c r="F81">
+        <v>0.05889216451777858</v>
+      </c>
+      <c r="G81">
+        <v>0.0801869008155548</v>
+      </c>
+      <c r="H81">
+        <v>0.01297303709861508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2359279209211489</v>
+        <v>0.08682039015733566</v>
       </c>
       <c r="C82">
-        <v>0.2982938729898683</v>
+        <v>0.3039574341415136</v>
       </c>
       <c r="D82">
-        <v>0.1282308220206799</v>
+        <v>0.2244478662511218</v>
       </c>
       <c r="E82">
-        <v>0.2140825452286827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.09825591762317193</v>
+      </c>
+      <c r="F82">
+        <v>-0.1255113914319748</v>
+      </c>
+      <c r="G82">
+        <v>0.1422232032322587</v>
+      </c>
+      <c r="H82">
+        <v>0.01984752317364914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01026351541940849</v>
+        <v>-0.00947028922301976</v>
       </c>
       <c r="C83">
-        <v>0.0529408815465208</v>
+        <v>0.01911032171592644</v>
       </c>
       <c r="D83">
-        <v>-0.0131708255768329</v>
+        <v>-0.02568336836097391</v>
       </c>
       <c r="E83">
-        <v>-0.04576744232427456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09074238313798873</v>
+      </c>
+      <c r="F83">
+        <v>0.06948390851592856</v>
+      </c>
+      <c r="G83">
+        <v>0.110584551134235</v>
+      </c>
+      <c r="H83">
+        <v>0.9260682183621368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0002177740861361167</v>
+        <v>-0.002947415718391504</v>
       </c>
       <c r="C84">
-        <v>-0.001549064158353699</v>
+        <v>0.01861989021034249</v>
       </c>
       <c r="D84">
-        <v>-0.00194997352459777</v>
+        <v>-0.04176967156967622</v>
       </c>
       <c r="E84">
-        <v>0.002486996722678244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01139375948926342</v>
+      </c>
+      <c r="F84">
+        <v>0.03155255661802701</v>
+      </c>
+      <c r="G84">
+        <v>0.06094185303064759</v>
+      </c>
+      <c r="H84">
+        <v>-0.05184819780786474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1401406367068704</v>
+        <v>0.05704358059522864</v>
       </c>
       <c r="C85">
-        <v>0.1433033252705077</v>
+        <v>0.1767280383114214</v>
       </c>
       <c r="D85">
-        <v>0.0769607625990231</v>
+        <v>0.109000987600153</v>
       </c>
       <c r="E85">
-        <v>-0.0212227224290501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02090672726899633</v>
+      </c>
+      <c r="F85">
+        <v>0.06595824337996073</v>
+      </c>
+      <c r="G85">
+        <v>0.02329989977175678</v>
+      </c>
+      <c r="H85">
+        <v>-0.01702332537948563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02021742813729532</v>
+        <v>0.01628546743796743</v>
       </c>
       <c r="C86">
-        <v>0.00935081478260469</v>
+        <v>0.04001405756220276</v>
       </c>
       <c r="D86">
-        <v>-0.1073983530539692</v>
+        <v>-0.109999806979063</v>
       </c>
       <c r="E86">
-        <v>-0.04253991755257123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.00175671823079075</v>
+      </c>
+      <c r="F86">
+        <v>0.01912699009171692</v>
+      </c>
+      <c r="G86">
+        <v>-0.008956031364699966</v>
+      </c>
+      <c r="H86">
+        <v>-0.02854898643722439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02320460567894352</v>
+        <v>0.01425408698239146</v>
       </c>
       <c r="C87">
-        <v>0.03026223578993149</v>
+        <v>0.06692283459722313</v>
       </c>
       <c r="D87">
-        <v>-0.1453231198864558</v>
+        <v>-0.1369247464254635</v>
       </c>
       <c r="E87">
-        <v>-0.08392753645369112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04556642446049577</v>
+      </c>
+      <c r="F87">
+        <v>0.05042827084344406</v>
+      </c>
+      <c r="G87">
+        <v>0.07650416432417168</v>
+      </c>
+      <c r="H87">
+        <v>0.01704853919285425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05182260719146425</v>
+        <v>0.03605517675084965</v>
       </c>
       <c r="C88">
-        <v>0.04546066400182234</v>
+        <v>0.07083129470996391</v>
       </c>
       <c r="D88">
-        <v>-0.009387442469541497</v>
+        <v>-0.01337376251510843</v>
       </c>
       <c r="E88">
-        <v>-0.02238618030927476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03337460661300319</v>
+      </c>
+      <c r="F88">
+        <v>0.01946748347782631</v>
+      </c>
+      <c r="G88">
+        <v>-0.009484853596083044</v>
+      </c>
+      <c r="H88">
+        <v>-0.01930038075938823</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3258972800222359</v>
+        <v>0.3966941320984567</v>
       </c>
       <c r="C89">
-        <v>-0.3165818468415981</v>
+        <v>-0.1658622627919489</v>
       </c>
       <c r="D89">
-        <v>-0.04218956367671657</v>
+        <v>-0.05419565982480356</v>
       </c>
       <c r="E89">
-        <v>-0.1122368857454392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03694114986069114</v>
+      </c>
+      <c r="F89">
+        <v>0.06663404910546905</v>
+      </c>
+      <c r="G89">
+        <v>0.06891516304769948</v>
+      </c>
+      <c r="H89">
+        <v>0.09560921807154443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2610983559501958</v>
+        <v>0.3215304639285754</v>
       </c>
       <c r="C90">
-        <v>-0.2340285987384146</v>
+        <v>-0.1100674229626513</v>
       </c>
       <c r="D90">
-        <v>-0.0533789467195158</v>
+        <v>-0.03251430517511469</v>
       </c>
       <c r="E90">
-        <v>-0.0005041672643587513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001831338908254425</v>
+      </c>
+      <c r="F90">
+        <v>-0.004936380581426024</v>
+      </c>
+      <c r="G90">
+        <v>0.06534923020655968</v>
+      </c>
+      <c r="H90">
+        <v>0.007466262597746418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1475785935577111</v>
+        <v>0.06856210917090722</v>
       </c>
       <c r="C91">
-        <v>0.1918724132137083</v>
+        <v>0.2022944397060167</v>
       </c>
       <c r="D91">
-        <v>0.09642231118533003</v>
+        <v>0.1030816349070977</v>
       </c>
       <c r="E91">
-        <v>-0.04483409960425352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08254357937732629</v>
+      </c>
+      <c r="F91">
+        <v>0.05679033731828213</v>
+      </c>
+      <c r="G91">
+        <v>0.003502091313744573</v>
+      </c>
+      <c r="H91">
+        <v>0.02047943835618094</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2446888629252464</v>
+        <v>0.3325018177628976</v>
       </c>
       <c r="C92">
-        <v>-0.2588069548104602</v>
+        <v>-0.1505655955947439</v>
       </c>
       <c r="D92">
-        <v>0.04355012120918856</v>
+        <v>-0.02188417742990277</v>
       </c>
       <c r="E92">
-        <v>-0.03263171483851345</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06901626474852622</v>
+      </c>
+      <c r="F92">
+        <v>0.04075008062018235</v>
+      </c>
+      <c r="G92">
+        <v>0.02325711766888684</v>
+      </c>
+      <c r="H92">
+        <v>-0.1334870014852754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2843092684475617</v>
+        <v>0.3296411550215064</v>
       </c>
       <c r="C93">
-        <v>-0.2480049221097614</v>
+        <v>-0.1242770510782677</v>
       </c>
       <c r="D93">
-        <v>0.01944684641887746</v>
+        <v>0.02383728965080417</v>
       </c>
       <c r="E93">
-        <v>0.0003615172689845503</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0124623390998841</v>
+      </c>
+      <c r="F93">
+        <v>0.01297364707366961</v>
+      </c>
+      <c r="G93">
+        <v>-0.01821644951454978</v>
+      </c>
+      <c r="H93">
+        <v>-0.03698787117387198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2736699735861613</v>
+        <v>0.12620963679011</v>
       </c>
       <c r="C94">
-        <v>0.2704253061912901</v>
+        <v>0.3266383981929973</v>
       </c>
       <c r="D94">
-        <v>0.2481342478351256</v>
+        <v>0.3519463326602887</v>
       </c>
       <c r="E94">
-        <v>0.2813771610864501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1274689987306495</v>
+      </c>
+      <c r="F94">
+        <v>-0.1332461687770117</v>
+      </c>
+      <c r="G94">
+        <v>0.2975964854258317</v>
+      </c>
+      <c r="H94">
+        <v>-0.05969580296954437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.009747231155256858</v>
+        <v>0.01710684041073663</v>
       </c>
       <c r="C95">
-        <v>0.0430530382040315</v>
+        <v>0.07068606831063264</v>
       </c>
       <c r="D95">
-        <v>-0.09903451015658275</v>
+        <v>-0.1331906435214758</v>
       </c>
       <c r="E95">
-        <v>-0.05541685388689333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09581068035884555</v>
+      </c>
+      <c r="F95">
+        <v>-0.0348770911795651</v>
+      </c>
+      <c r="G95">
+        <v>-0.05342776914194389</v>
+      </c>
+      <c r="H95">
+        <v>-0.05362794728328565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002402475201176655</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009681310609799236</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0004702003266415901</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003575308932371909</v>
+      </c>
+      <c r="F97">
+        <v>0.0005156093636383714</v>
+      </c>
+      <c r="G97">
+        <v>0.002401748503543601</v>
+      </c>
+      <c r="H97">
+        <v>-0.004896896033176727</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1549151151850407</v>
+        <v>0.1376036957441586</v>
       </c>
       <c r="C98">
-        <v>0.09068979961324686</v>
+        <v>0.1621121888693595</v>
       </c>
       <c r="D98">
-        <v>-0.1298098133529351</v>
+        <v>-0.02580625530553433</v>
       </c>
       <c r="E98">
-        <v>0.1351019728644989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1944072168279194</v>
+      </c>
+      <c r="F98">
+        <v>-0.2433477322889536</v>
+      </c>
+      <c r="G98">
+        <v>-0.3133644625588136</v>
+      </c>
+      <c r="H98">
+        <v>0.07526923205413097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00216178420752592</v>
+        <v>0.003504166893501338</v>
       </c>
       <c r="C101">
-        <v>0.02183142980734645</v>
+        <v>0.04050705378447408</v>
       </c>
       <c r="D101">
-        <v>-0.08398093443074245</v>
+        <v>-0.09219231830022057</v>
       </c>
       <c r="E101">
-        <v>-0.03678652905013144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09384921225362017</v>
+      </c>
+      <c r="F101">
+        <v>0.03355646859163543</v>
+      </c>
+      <c r="G101">
+        <v>0.02610330968373176</v>
+      </c>
+      <c r="H101">
+        <v>0.03895583480263996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1005372231740311</v>
+        <v>0.02453011392649041</v>
       </c>
       <c r="C102">
-        <v>0.162604949380127</v>
+        <v>0.142357624788412</v>
       </c>
       <c r="D102">
-        <v>0.0254637547397954</v>
+        <v>0.0967046474825905</v>
       </c>
       <c r="E102">
-        <v>0.09539620710158402</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05266877101693782</v>
+      </c>
+      <c r="F102">
+        <v>-0.0811290643941089</v>
+      </c>
+      <c r="G102">
+        <v>0.01507614507897011</v>
+      </c>
+      <c r="H102">
+        <v>0.02484435304756469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
